--- a/data/concepts_l4.xlsx
+++ b/data/concepts_l4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -416,23 +416,23 @@
         </is>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Food policy</t>
+          <t>Authoritarianism</t>
         </is>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Authoritarianism</t>
+          <t>Food policy</t>
         </is>
       </c>
       <c r="B8">
@@ -442,7 +442,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Business relationship management</t>
+          <t>Complementation</t>
         </is>
       </c>
       <c r="B9">
@@ -452,7 +452,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ecosystem health</t>
+          <t>Business relationship management</t>
         </is>
       </c>
       <c r="B10">
@@ -462,7 +462,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>United Nations Framework Convention on Climate Change</t>
+          <t>Ecosystem health</t>
         </is>
       </c>
       <c r="B11">
@@ -472,7 +472,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Urban metabolism</t>
+          <t>United Nations Framework Convention on Climate Change</t>
         </is>
       </c>
       <c r="B12">
@@ -482,17 +482,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Complementation</t>
+          <t>Urban metabolism</t>
         </is>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Electricity system</t>
+          <t>Biorefining</t>
         </is>
       </c>
       <c r="B14">
@@ -502,7 +502,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fisheries law</t>
+          <t>Critical discourse analysis</t>
         </is>
       </c>
       <c r="B15">
@@ -512,7 +512,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Neuroleadership</t>
+          <t>Fisheries law</t>
         </is>
       </c>
       <c r="B16">
@@ -522,7 +522,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scrum</t>
+          <t>Neuroleadership</t>
         </is>
       </c>
       <c r="B17">
@@ -532,7 +532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stormwater management</t>
+          <t>Scrum</t>
         </is>
       </c>
       <c r="B18">
@@ -572,7 +572,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Biorefining</t>
+          <t>Blue carbon</t>
         </is>
       </c>
       <c r="B22">
@@ -582,7 +582,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blue carbon</t>
+          <t>Business process modeling</t>
         </is>
       </c>
       <c r="B23">
@@ -592,7 +592,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Business process modeling</t>
+          <t>Cas9</t>
         </is>
       </c>
       <c r="B24">
@@ -602,7 +602,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Business-to-government</t>
+          <t>Clientelism</t>
         </is>
       </c>
       <c r="B25">
@@ -612,7 +612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cas9</t>
+          <t>Competence-based management</t>
         </is>
       </c>
       <c r="B26">
@@ -622,7 +622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Competence-based management</t>
+          <t>Critical geography</t>
         </is>
       </c>
       <c r="B27">
@@ -632,7 +632,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coral reef organizations</t>
+          <t>Data governance</t>
         </is>
       </c>
       <c r="B28">
@@ -642,7 +642,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Critical geography</t>
+          <t>Deliberative democracy</t>
         </is>
       </c>
       <c r="B29">
@@ -652,7 +652,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Data governance</t>
+          <t>Development geography</t>
         </is>
       </c>
       <c r="B30">
@@ -662,7 +662,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Deliberative democracy</t>
+          <t>Domestic tourism</t>
         </is>
       </c>
       <c r="B31">
@@ -672,7 +672,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Development geography</t>
+          <t>Ecological forecasting</t>
         </is>
       </c>
       <c r="B32">
@@ -682,7 +682,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ecological forecasting</t>
+          <t>Electricity system</t>
         </is>
       </c>
       <c r="B33">
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Genome editing</t>
+          <t>Food sovereignty</t>
         </is>
       </c>
       <c r="B38">
@@ -782,7 +782,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jatropha</t>
+          <t>Information governance</t>
         </is>
       </c>
       <c r="B43">
@@ -792,7 +792,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Legal pluralism</t>
+          <t>Jatropha</t>
         </is>
       </c>
       <c r="B44">
@@ -802,7 +802,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Malmquist index</t>
+          <t>Land law</t>
         </is>
       </c>
       <c r="B45">
@@ -812,7 +812,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Market capitalization</t>
+          <t>Land registration</t>
         </is>
       </c>
       <c r="B46">
@@ -822,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Measurement of biodiversity</t>
+          <t>Legal pluralism</t>
         </is>
       </c>
       <c r="B47">
@@ -832,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Millennium Ecosystem Assessment</t>
+          <t>Malmquist index</t>
         </is>
       </c>
       <c r="B48">
@@ -842,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Natural capital</t>
+          <t>Market capitalization</t>
         </is>
       </c>
       <c r="B49">
@@ -852,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Network security policy</t>
+          <t>Measurement of biodiversity</t>
         </is>
       </c>
       <c r="B50">
@@ -862,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Non-coding RNA</t>
+          <t>Millennium Ecosystem Assessment</t>
         </is>
       </c>
       <c r="B51">
@@ -872,7 +872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nucleic acid structure</t>
+          <t>Natural capital</t>
         </is>
       </c>
       <c r="B52">
@@ -882,7 +882,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Placemaking</t>
+          <t>Network security policy</t>
         </is>
       </c>
       <c r="B53">
@@ -892,7 +892,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Project charter</t>
+          <t>Non-coding RNA</t>
         </is>
       </c>
       <c r="B54">
@@ -902,7 +902,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Psychometric testing</t>
+          <t>Nucleic acid structure</t>
         </is>
       </c>
       <c r="B55">
@@ -912,7 +912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Regime change</t>
+          <t>Placemaking</t>
         </is>
       </c>
       <c r="B56">
@@ -922,7 +922,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Representative Concentration Pathways</t>
+          <t>Project charter</t>
         </is>
       </c>
       <c r="B57">
@@ -932,7 +932,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Repressor</t>
+          <t>Psychometric testing</t>
         </is>
       </c>
       <c r="B58">
@@ -942,7 +942,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Requirement</t>
+          <t>Public participation GIS</t>
         </is>
       </c>
       <c r="B59">
@@ -952,7 +952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ribonucleoprotein</t>
+          <t>Regime change</t>
         </is>
       </c>
       <c r="B60">
@@ -962,7 +962,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ribosome</t>
+          <t>Representative Concentration Pathways</t>
         </is>
       </c>
       <c r="B61">
@@ -972,7 +972,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Scientific consensus</t>
+          <t>Requirement</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Seed dormancy</t>
+          <t>Ribonucleoprotein</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Separate spheres</t>
+          <t>Ribosome</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,7 +1002,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Social movement theory</t>
+          <t>Scientific consensus</t>
         </is>
       </c>
       <c r="B65">
@@ -1012,7 +1012,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Solidarity economy</t>
+          <t>Seed dormancy</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sustainable land management</t>
+          <t>Separate spheres</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,10 +1032,80 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>Shareholder value</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Social identity approach</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Social movement theory</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Soft systems methodology</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Solidarity economy</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Stormwater management</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sustainable land management</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>Transfer RNA</t>
         </is>
       </c>
-      <c r="B68">
+      <c r="B75">
         <v>1</v>
       </c>
     </row>
